--- a/Analyzed/raw/data_2010.xlsx
+++ b/Analyzed/raw/data_2010.xlsx
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="X2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -625,10 +625,10 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -695,16 +695,16 @@
         <v>1</v>
       </c>
       <c r="U4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W4">
         <v>1</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -771,16 +771,16 @@
         <v>3</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -850,13 +850,13 @@
         <v>3</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -926,7 +926,7 @@
         <v>2</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>5</v>
@@ -938,7 +938,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>넥센 히어로즈</t>
+          <t>키움 히어로즈</t>
         </is>
       </c>
       <c r="B8">
@@ -962,29 +962,53 @@
       <c r="H8">
         <v>0.391</v>
       </c>
+      <c r="I8">
+        <v>32.61</v>
+      </c>
+      <c r="J8">
+        <v>2159</v>
+      </c>
+      <c r="K8">
+        <v>921.587</v>
+      </c>
+      <c r="L8">
+        <v>565</v>
+      </c>
+      <c r="M8">
+        <v>58.77302470017552</v>
+      </c>
+      <c r="N8">
+        <v>562.8</v>
+      </c>
+      <c r="O8">
+        <v>981.1799999999999</v>
+      </c>
+      <c r="P8">
+        <v>2961.8</v>
+      </c>
       <c r="Q8">
         <v>7</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>1</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <v>1</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1042,25 +1066,25 @@
         <v>8</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>3</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <v>7</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W9">
         <v>5</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
